--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS3.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS3.xlsx
@@ -19,114 +19,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="63">
-  <si>
-    <t>Signal_Value_86</t>
-  </si>
-  <si>
-    <t>Signal_Value_87</t>
-  </si>
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
-  <si>
-    <t>Signal_Value_89</t>
-  </si>
-  <si>
-    <t>Signal_Value_90</t>
-  </si>
-  <si>
-    <t>Signal_Value_91</t>
-  </si>
-  <si>
-    <t>Signal_Value_92</t>
-  </si>
-  <si>
-    <t>Signal_Value_93</t>
-  </si>
-  <si>
-    <t>Signal_Value_94</t>
-  </si>
-  <si>
-    <t>Signal_Value_95</t>
-  </si>
-  <si>
-    <t>Signal_Value_96</t>
-  </si>
-  <si>
-    <t>Signal_Value_97</t>
-  </si>
-  <si>
-    <t>Signal_Value_98</t>
-  </si>
-  <si>
-    <t>Signal_Value_99</t>
-  </si>
-  <si>
-    <t>Signal_Value_100</t>
-  </si>
-  <si>
-    <t>Signal_Value_101</t>
-  </si>
-  <si>
-    <t>Signal_Value_102</t>
-  </si>
-  <si>
-    <t>Signal_Value_103</t>
-  </si>
-  <si>
-    <t>Signal_Value_104</t>
-  </si>
-  <si>
-    <t>Signal_Value_105</t>
-  </si>
-  <si>
-    <t>Signal_Value_106</t>
-  </si>
-  <si>
-    <t>Signal_Value_107</t>
-  </si>
-  <si>
-    <t>Signal_Value_108</t>
-  </si>
-  <si>
-    <t>Signal_Value_109</t>
-  </si>
-  <si>
-    <t>Signal_Value_110</t>
-  </si>
-  <si>
-    <t>Signal_Value_111</t>
-  </si>
-  <si>
-    <t>Signal_Value_112</t>
-  </si>
-  <si>
-    <t>Signal_Value_113</t>
-  </si>
-  <si>
-    <t>Signal_Value_114</t>
-  </si>
-  <si>
-    <t>Signal_Value_115</t>
-  </si>
-  <si>
-    <t>Signal_Value_116</t>
-  </si>
-  <si>
-    <t>Signal_Value_117</t>
-  </si>
-  <si>
-    <t>Signal_Value_118</t>
-  </si>
-  <si>
-    <t>Signal_Value_119</t>
-  </si>
-  <si>
-    <t>Signal_Value_120</t>
-  </si>
-  <si>
-    <t>Signal_Value_121</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="98">
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -201,10 +309,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -565,15 +670,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:BU6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:73">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -683,10 +788,118 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:73">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -695,111 +908,219 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.09331549844201199</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02127298615953335</v>
       </c>
       <c r="F2">
-        <v>0.009377291727551132</v>
+        <v>0.04319144911781099</v>
       </c>
       <c r="G2">
-        <v>0.04532985697341461</v>
+        <v>0.02919570408810045</v>
       </c>
       <c r="H2">
-        <v>0.008540103269072962</v>
+        <v>0.02718449058952678</v>
       </c>
       <c r="I2">
-        <v>0.04980686183496007</v>
+        <v>0.03591915008319862</v>
       </c>
       <c r="J2">
-        <v>0.03474135652464827</v>
+        <v>0.06546205044321264</v>
       </c>
       <c r="K2">
-        <v>0.01046898289699742</v>
+        <v>0.09429779557545019</v>
       </c>
       <c r="L2">
-        <v>0.03307465474419848</v>
+        <v>0.003535878037752608</v>
       </c>
       <c r="M2">
-        <v>0.05191735590640073</v>
+        <v>0.0667639979516961</v>
       </c>
       <c r="N2">
-        <v>0.07150604700632122</v>
+        <v>0.006859009580065914</v>
       </c>
       <c r="O2">
-        <v>0.04788295498948194</v>
+        <v>0.08686165572024075</v>
       </c>
       <c r="P2">
-        <v>0.1502429833375428</v>
+        <v>0.005220728996946528</v>
       </c>
       <c r="Q2">
-        <v>0.02922086044422291</v>
+        <v>0.01686645276659692</v>
       </c>
       <c r="R2">
-        <v>0.002497429783124183</v>
+        <v>0.06406951065139158</v>
       </c>
       <c r="S2">
-        <v>0.02488479449819471</v>
+        <v>0.07598475394187273</v>
       </c>
       <c r="T2">
-        <v>0.08889148563125102</v>
+        <v>0.03039288619737968</v>
       </c>
       <c r="U2">
-        <v>0.1360607757501367</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0008088007444186644</v>
+        <v>0.001144756735786215</v>
       </c>
       <c r="W2">
-        <v>0.04447161301305932</v>
+        <v>0.02287129686091778</v>
       </c>
       <c r="X2">
-        <v>0.01518734518160004</v>
+        <v>0.03163579318134372</v>
       </c>
       <c r="Y2">
-        <v>0.001317046376307654</v>
+        <v>0.08622675696146578</v>
       </c>
       <c r="Z2">
-        <v>0.01956355701859442</v>
+        <v>0.003001457348021723</v>
       </c>
       <c r="AA2">
-        <v>0.03640688550961323</v>
+        <v>0.002318621053377892</v>
       </c>
       <c r="AB2">
-        <v>0.01146775885819346</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.002169708478108481</v>
+        <v>0.05312450014668863</v>
       </c>
       <c r="AD2">
-        <v>9.00485088295582E-05</v>
+        <v>0.01645674801859111</v>
       </c>
       <c r="AE2">
-        <v>0.001364295261010715</v>
+        <v>0.004464255663136963</v>
       </c>
       <c r="AF2">
-        <v>0.0002770049126680069</v>
+        <v>0.003956116357140502</v>
       </c>
       <c r="AG2">
-        <v>0.0002214892193760722</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01477063085928919</v>
+        <v>0.008405699330741805</v>
       </c>
       <c r="AI2">
-        <v>0.03826058920614173</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.01643812184686634</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.002741309688403671</v>
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:73">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -814,105 +1135,213 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.02433994289627853</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02846312591352268</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.004469326802198034</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.03068155071072545</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00688515766151452</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.004757434554931243</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1045933179410391</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.02021629163000925</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.08820920110137712</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2080463721944154</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.009224439386555242</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.02275784225283161</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.02858101031000802</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.09531172594467281</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.09977991886161204</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0002955193584039726</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.03703418787597225</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.005227075655052008</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0003687570603000296</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.02812938489795714</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.04214524807000862</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01160489534559294</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.003392651220262719</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001900949448472676</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.313650030603255E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002370805899256314</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.02647171226168194</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.04868929091019163</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.01395174400578731</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002108633115547723</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.001699027567416428</v>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0.1087844900677679</v>
+      </c>
+      <c r="AQ3">
+        <v>0.1173936671741314</v>
+      </c>
+      <c r="AR3">
+        <v>0.05619589144183573</v>
+      </c>
+      <c r="AS3">
+        <v>0.02226986556831529</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0.01235056151087301</v>
+      </c>
+      <c r="AV3">
+        <v>0.009376932719111877</v>
+      </c>
+      <c r="AW3">
+        <v>0.1225540444914297</v>
+      </c>
+      <c r="AX3">
+        <v>0.02579273145304662</v>
+      </c>
+      <c r="AY3">
+        <v>0.003227685656951468</v>
+      </c>
+      <c r="AZ3">
+        <v>0.004823286630848013</v>
+      </c>
+      <c r="BA3">
+        <v>0.01824941559185004</v>
+      </c>
+      <c r="BB3">
+        <v>0.002735147274263737</v>
+      </c>
+      <c r="BC3">
+        <v>0.005675061614776704</v>
+      </c>
+      <c r="BD3">
+        <v>0.01487441473481188</v>
+      </c>
+      <c r="BE3">
+        <v>0.01766159977171978</v>
+      </c>
+      <c r="BF3">
+        <v>0.05629180244408088</v>
+      </c>
+      <c r="BG3">
+        <v>0.002013523103636207</v>
+      </c>
+      <c r="BH3">
+        <v>0.0009071281111474909</v>
+      </c>
+      <c r="BI3">
+        <v>0.001854676273627851</v>
+      </c>
+      <c r="BJ3">
+        <v>0.07245607330950742</v>
+      </c>
+      <c r="BK3">
+        <v>0.2147041306075349</v>
+      </c>
+      <c r="BL3">
+        <v>0.01839651931480006</v>
+      </c>
+      <c r="BM3">
+        <v>0.01346739668535231</v>
+      </c>
+      <c r="BN3">
+        <v>0.003934678785768473</v>
+      </c>
+      <c r="BO3">
+        <v>0.0161727641601184</v>
+      </c>
+      <c r="BP3">
+        <v>0.04709168392626631</v>
+      </c>
+      <c r="BQ3">
+        <v>0.0008183023779136349</v>
+      </c>
+      <c r="BR3">
+        <v>0.003425156051471569</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>6.428463576734986E-06</v>
+      </c>
+      <c r="BU3">
+        <v>0.006494940683464651</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:73">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -924,108 +1353,216 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.00561569030654835</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0003986286413446885</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.05380423746308876</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07977598129168313</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003509230008578176</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06498695327488732</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01993505470444832</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.999918344242929E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1377635849447034</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0338566912230422</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1095303572899447</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.1563953065156723</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0008375476739602174</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.03034120083200544</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.03220761890773445</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.07710503018049329</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.03393104713383183</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.007734127211984185</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.02449200343901343</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0001063204619145329</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0003944371259770023</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.02817769351407591</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.03038431626218748</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.006188558086699355</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0006226673551974222</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0002085493405464166</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0002400365050251461</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001975956880829541</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.02379254364322889</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0302662028713765</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.005332427726535667</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0.07142503674662072</v>
+      </c>
+      <c r="AP4">
+        <v>0.05914698133551917</v>
+      </c>
+      <c r="AQ4">
+        <v>0.1447797302552927</v>
+      </c>
+      <c r="AR4">
+        <v>0.003874360505838159</v>
+      </c>
+      <c r="AS4">
+        <v>0.0006082209138140863</v>
+      </c>
+      <c r="AT4">
+        <v>0.003721029522951765</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0.1124783948985324</v>
+      </c>
+      <c r="AW4">
+        <v>0.1070642252923198</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0.0272780201315301</v>
+      </c>
+      <c r="AZ4">
+        <v>0.03975866755106174</v>
+      </c>
+      <c r="BA4">
+        <v>0.0201833313596535</v>
+      </c>
+      <c r="BB4">
+        <v>0.002148177505460527</v>
+      </c>
+      <c r="BC4">
+        <v>0.003679443583564221</v>
+      </c>
+      <c r="BD4">
+        <v>0.009154212156567162</v>
+      </c>
+      <c r="BE4">
+        <v>0.01783577252872875</v>
+      </c>
+      <c r="BF4">
+        <v>0.02396151769662183</v>
+      </c>
+      <c r="BG4">
+        <v>0.01622747845693431</v>
+      </c>
+      <c r="BH4">
+        <v>0.00251621617789431</v>
+      </c>
+      <c r="BI4">
+        <v>0.01053010277726985</v>
+      </c>
+      <c r="BJ4">
+        <v>0.07417366176099728</v>
+      </c>
+      <c r="BK4">
+        <v>0.1550365239284274</v>
+      </c>
+      <c r="BL4">
+        <v>8.775703709286758E-05</v>
+      </c>
+      <c r="BM4">
+        <v>0.00321398234163083</v>
+      </c>
+      <c r="BN4">
+        <v>0.002834502461360372</v>
+      </c>
+      <c r="BO4">
+        <v>0.07035333087785645</v>
+      </c>
+      <c r="BP4">
+        <v>0.008869353949267177</v>
+      </c>
+      <c r="BQ4">
+        <v>0.006373413957415114</v>
+      </c>
+      <c r="BR4">
+        <v>0.0001140263929506684</v>
+      </c>
+      <c r="BS4">
+        <v>0.002471063741441729</v>
+      </c>
+      <c r="BT4">
+        <v>0.000101464155384648</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:73">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1040,105 +1577,213 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.002954420750163581</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.08309946854846165</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.04776176461897055</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0298337714926579</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06451553802877753</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0007890393916041389</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.008908991532252556</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1004639598197376</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.04637221526530017</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.07164398730892438</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.1894986978947887</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0115836773945698</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.03626491969301527</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.05678956209966023</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.06182543802745993</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.03404696589161362</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001785089777423422</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.02590841295516531</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.003738562310037832</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0003870477661732444</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.02492052932094472</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.03705469174240045</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.007104144666606481</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>4.404171729946153E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0006371543875366474</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>3.188028667148518E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000108648451081463</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0003223677528411622</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01467459122458493</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.02932275411850688</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.007517585426459734</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>9.008033830905608E-05</v>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0.1098722487155494</v>
+      </c>
+      <c r="AQ5">
+        <v>0.03267577225478339</v>
+      </c>
+      <c r="AR5">
+        <v>0.06683253611694429</v>
+      </c>
+      <c r="AS5">
+        <v>0.07969985335991954</v>
+      </c>
+      <c r="AT5">
+        <v>0.00491790516968129</v>
+      </c>
+      <c r="AU5">
+        <v>0.003256906116492484</v>
+      </c>
+      <c r="AV5">
+        <v>0.02371528370643528</v>
+      </c>
+      <c r="AW5">
+        <v>0.0545767154105711</v>
+      </c>
+      <c r="AX5">
+        <v>0.1041347889515318</v>
+      </c>
+      <c r="AY5">
+        <v>0.0466459879001121</v>
+      </c>
+      <c r="AZ5">
+        <v>0.01085254296114718</v>
+      </c>
+      <c r="BA5">
+        <v>0.04725596576298501</v>
+      </c>
+      <c r="BB5">
+        <v>0.06961847481805883</v>
+      </c>
+      <c r="BC5">
+        <v>0.002267081505148659</v>
+      </c>
+      <c r="BD5">
+        <v>0.06913939297963825</v>
+      </c>
+      <c r="BE5">
+        <v>0.03035016659703441</v>
+      </c>
+      <c r="BF5">
+        <v>0.01255876521715242</v>
+      </c>
+      <c r="BG5">
+        <v>0.01402713586517417</v>
+      </c>
+      <c r="BH5">
+        <v>0.0004284538933649261</v>
+      </c>
+      <c r="BI5">
+        <v>0.01719715099173277</v>
+      </c>
+      <c r="BJ5">
+        <v>0.02047801522292529</v>
+      </c>
+      <c r="BK5">
+        <v>0.07059189775312789</v>
+      </c>
+      <c r="BL5">
+        <v>0.01554188194571528</v>
+      </c>
+      <c r="BM5">
+        <v>0.002244120096870248</v>
+      </c>
+      <c r="BN5">
+        <v>0.004636423259921999</v>
+      </c>
+      <c r="BO5">
+        <v>0.02484447734717759</v>
+      </c>
+      <c r="BP5">
+        <v>0.04993163851311388</v>
+      </c>
+      <c r="BQ5">
+        <v>0.0009812939607850423</v>
+      </c>
+      <c r="BR5">
+        <v>0.006319467824620543</v>
+      </c>
+      <c r="BS5">
+        <v>0.002296214871717309</v>
+      </c>
+      <c r="BT5">
+        <v>0.002111440910567387</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:73">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1147,106 +1792,214 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01887371032154129</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02756670033398246</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.007616894128399526</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1327138769560675</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.009848052674151956</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.08678033035352276</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.00869930521429867</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.004350609619564346</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1513208417654668</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.007644004167891392</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1463791506945092</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1047273348583334</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.01099094808895926</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.08061084430122659</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.02790028686309874</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.02049230979488597</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.005882075502359408</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.007855088663658825</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01159044352709765</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001835037692278148</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.002105384873439882</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.03698413626165821</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.02386370322081053</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.002266293156484752</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.383557877896849E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0004569821057504091</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001274383331742276</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.521189422214131E-06</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.005725174822192531</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0317876200683032</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.02061365239804805</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001229467472075115</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0.1316388507921037</v>
+      </c>
+      <c r="AQ6">
+        <v>0.01766755694123207</v>
+      </c>
+      <c r="AR6">
+        <v>0.1196155936998952</v>
+      </c>
+      <c r="AS6">
+        <v>0.06058830373063639</v>
+      </c>
+      <c r="AT6">
+        <v>0.02212600190003373</v>
+      </c>
+      <c r="AU6">
+        <v>0.01307315801455489</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0.00227331826917911</v>
+      </c>
+      <c r="AX6">
+        <v>0.01692834785873524</v>
+      </c>
+      <c r="AY6">
+        <v>0.00139191867778131</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0.03118779938552696</v>
+      </c>
+      <c r="BB6">
+        <v>0.005279781922360165</v>
+      </c>
+      <c r="BC6">
+        <v>0.00532448661755048</v>
+      </c>
+      <c r="BD6">
+        <v>0.005208602317522183</v>
+      </c>
+      <c r="BE6">
+        <v>0.05114907782663509</v>
+      </c>
+      <c r="BF6">
+        <v>0.1542756225062596</v>
+      </c>
+      <c r="BG6">
+        <v>0.0137599062069486</v>
+      </c>
+      <c r="BH6">
+        <v>0.04140243937667148</v>
+      </c>
+      <c r="BI6">
+        <v>0.005166542284780646</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0.08362675838789745</v>
+      </c>
+      <c r="BL6">
+        <v>0.1413694744539258</v>
+      </c>
+      <c r="BM6">
+        <v>0.01966251600212927</v>
+      </c>
+      <c r="BN6">
+        <v>0.02493830779759623</v>
+      </c>
+      <c r="BO6">
+        <v>0.007180683734997883</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0.003138328630795021</v>
+      </c>
+      <c r="BT6">
+        <v>0.002325301443135543</v>
+      </c>
+      <c r="BU6">
+        <v>0.01970132122111605</v>
       </c>
     </row>
   </sheetData>
@@ -1256,15 +2009,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:BU6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:73">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1374,10 +2127,118 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:73">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1386,111 +2247,219 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.09331549844201199</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1145884846015453</v>
       </c>
       <c r="F2">
-        <v>0.009377291727551132</v>
+        <v>0.1577799337193563</v>
       </c>
       <c r="G2">
-        <v>0.05470714870096575</v>
+        <v>0.1869756378074568</v>
       </c>
       <c r="H2">
-        <v>0.06324725197003871</v>
+        <v>0.2141601283969836</v>
       </c>
       <c r="I2">
-        <v>0.1130541138049988</v>
+        <v>0.2500792784801822</v>
       </c>
       <c r="J2">
-        <v>0.147795470329647</v>
+        <v>0.3155413289233948</v>
       </c>
       <c r="K2">
-        <v>0.1582644532266445</v>
+        <v>0.409839124498845</v>
       </c>
       <c r="L2">
-        <v>0.1913391079708429</v>
+        <v>0.4133750025365976</v>
       </c>
       <c r="M2">
-        <v>0.2432564638772437</v>
+        <v>0.4801390004882937</v>
       </c>
       <c r="N2">
-        <v>0.3147625108835649</v>
+        <v>0.4869980100683596</v>
       </c>
       <c r="O2">
-        <v>0.3626454658730468</v>
+        <v>0.5738596657886004</v>
       </c>
       <c r="P2">
-        <v>0.5128884492105896</v>
+        <v>0.5790803947855468</v>
       </c>
       <c r="Q2">
-        <v>0.5421093096548125</v>
+        <v>0.5959468475521438</v>
       </c>
       <c r="R2">
-        <v>0.5446067394379367</v>
+        <v>0.6600163582035353</v>
       </c>
       <c r="S2">
-        <v>0.5694915339361314</v>
+        <v>0.7360011121454081</v>
       </c>
       <c r="T2">
-        <v>0.6583830195673824</v>
+        <v>0.7663939983427878</v>
       </c>
       <c r="U2">
-        <v>0.7944437953175192</v>
+        <v>0.7663939983427878</v>
       </c>
       <c r="V2">
-        <v>0.7952525960619379</v>
+        <v>0.7675387550785739</v>
       </c>
       <c r="W2">
-        <v>0.8397242090749972</v>
+        <v>0.7904100519394918</v>
       </c>
       <c r="X2">
-        <v>0.8549115542565973</v>
+        <v>0.8220458451208355</v>
       </c>
       <c r="Y2">
-        <v>0.856228600632905</v>
+        <v>0.9082726020823012</v>
       </c>
       <c r="Z2">
-        <v>0.8757921576514994</v>
+        <v>0.9112740594303229</v>
       </c>
       <c r="AA2">
-        <v>0.9121990431611127</v>
+        <v>0.9135926804837008</v>
       </c>
       <c r="AB2">
-        <v>0.9236668020193062</v>
+        <v>0.9135926804837008</v>
       </c>
       <c r="AC2">
-        <v>0.9258365104974147</v>
+        <v>0.9667171806303895</v>
       </c>
       <c r="AD2">
-        <v>0.9259265590062442</v>
+        <v>0.9831739286489806</v>
       </c>
       <c r="AE2">
-        <v>0.9272908542672549</v>
+        <v>0.9876381843121176</v>
       </c>
       <c r="AF2">
-        <v>0.9275678591799229</v>
+        <v>0.9915943006692581</v>
       </c>
       <c r="AG2">
-        <v>0.9277893483992989</v>
+        <v>0.9915943006692581</v>
       </c>
       <c r="AH2">
-        <v>0.9425599792585881</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.9808205684647299</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.9972586903115962</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
         <v>0.9999999999999999</v>
       </c>
+      <c r="AL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BU2">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:73">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1505,439 +2474,871 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.02433994289627853</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.05280306880980121</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05727239561199924</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.08795394632272469</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0948391039842392</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.09959653853917044</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2041898564802095</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2244061481102188</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.3126153492115959</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5206617214060113</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5298861607925666</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.5526440030453982</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.5812250133554062</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.6765367393000791</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.7763166581616912</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.7766121775200951</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.8136463653960674</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.8188734410511194</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.8192421981114194</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.8473715830093765</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.8895168310793852</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.9011217264249781</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.9045143776452408</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.904704472590088</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.9047087862401186</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.9047087862401186</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9070795921393749</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.9335513044010569</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.9822405953112485</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.9961923393170359</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.9983009724325836</v>
+        <v>0</v>
       </c>
       <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0.1087844900677679</v>
+      </c>
+      <c r="AQ3">
+        <v>0.2261781572418993</v>
+      </c>
+      <c r="AR3">
+        <v>0.2823740486837351</v>
+      </c>
+      <c r="AS3">
+        <v>0.3046439142520503</v>
+      </c>
+      <c r="AT3">
+        <v>0.3046439142520503</v>
+      </c>
+      <c r="AU3">
+        <v>0.3169944757629233</v>
+      </c>
+      <c r="AV3">
+        <v>0.3263714084820352</v>
+      </c>
+      <c r="AW3">
+        <v>0.4489254529734649</v>
+      </c>
+      <c r="AX3">
+        <v>0.4747181844265115</v>
+      </c>
+      <c r="AY3">
+        <v>0.477945870083463</v>
+      </c>
+      <c r="AZ3">
+        <v>0.482769156714311</v>
+      </c>
+      <c r="BA3">
+        <v>0.5010185723061611</v>
+      </c>
+      <c r="BB3">
+        <v>0.5037537195804248</v>
+      </c>
+      <c r="BC3">
+        <v>0.5094287811952015</v>
+      </c>
+      <c r="BD3">
+        <v>0.5243031959300134</v>
+      </c>
+      <c r="BE3">
+        <v>0.5419647957017332</v>
+      </c>
+      <c r="BF3">
+        <v>0.598256598145814</v>
+      </c>
+      <c r="BG3">
+        <v>0.6002701212494502</v>
+      </c>
+      <c r="BH3">
+        <v>0.6011772493605977</v>
+      </c>
+      <c r="BI3">
+        <v>0.6030319256342256</v>
+      </c>
+      <c r="BJ3">
+        <v>0.675487998943733</v>
+      </c>
+      <c r="BK3">
+        <v>0.8901921295512679</v>
+      </c>
+      <c r="BL3">
+        <v>0.9085886488660679</v>
+      </c>
+      <c r="BM3">
+        <v>0.9220560455514203</v>
+      </c>
+      <c r="BN3">
+        <v>0.9259907243371888</v>
+      </c>
+      <c r="BO3">
+        <v>0.9421634884973071</v>
+      </c>
+      <c r="BP3">
+        <v>0.9892551724235734</v>
+      </c>
+      <c r="BQ3">
+        <v>0.990073474801487</v>
+      </c>
+      <c r="BR3">
+        <v>0.9934986308529585</v>
+      </c>
+      <c r="BS3">
+        <v>0.9934986308529585</v>
+      </c>
+      <c r="BT3">
+        <v>0.9935050593165352</v>
+      </c>
+      <c r="BU3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0.07142503674662072</v>
+      </c>
+      <c r="AP4">
+        <v>0.1305720180821399</v>
+      </c>
+      <c r="AQ4">
+        <v>0.2753517483374326</v>
+      </c>
+      <c r="AR4">
+        <v>0.2792261088432708</v>
+      </c>
+      <c r="AS4">
+        <v>0.2798343297570848</v>
+      </c>
+      <c r="AT4">
+        <v>0.2835553592800366</v>
+      </c>
+      <c r="AU4">
+        <v>0.2835553592800366</v>
+      </c>
+      <c r="AV4">
+        <v>0.396033754178569</v>
+      </c>
+      <c r="AW4">
+        <v>0.5030979794708889</v>
+      </c>
+      <c r="AX4">
+        <v>0.5030979794708889</v>
+      </c>
+      <c r="AY4">
+        <v>0.530375999602419</v>
+      </c>
+      <c r="AZ4">
+        <v>0.5701346671534807</v>
+      </c>
+      <c r="BA4">
+        <v>0.5903179985131343</v>
+      </c>
+      <c r="BB4">
+        <v>0.5924661760185947</v>
+      </c>
+      <c r="BC4">
+        <v>0.5961456196021589</v>
+      </c>
+      <c r="BD4">
+        <v>0.6052998317587261</v>
+      </c>
+      <c r="BE4">
+        <v>0.623135604287455</v>
+      </c>
+      <c r="BF4">
+        <v>0.6470971219840768</v>
+      </c>
+      <c r="BG4">
+        <v>0.663324600441011</v>
+      </c>
+      <c r="BH4">
+        <v>0.6658408166189054</v>
+      </c>
+      <c r="BI4">
+        <v>0.6763709193961752</v>
+      </c>
+      <c r="BJ4">
+        <v>0.7505445811571725</v>
+      </c>
+      <c r="BK4">
+        <v>0.9055811050855999</v>
+      </c>
+      <c r="BL4">
+        <v>0.9056688621226927</v>
+      </c>
+      <c r="BM4">
+        <v>0.9088828444643235</v>
+      </c>
+      <c r="BN4">
+        <v>0.911717346925684</v>
+      </c>
+      <c r="BO4">
+        <v>0.9820706778035404</v>
+      </c>
+      <c r="BP4">
+        <v>0.9909400317528075</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9973134457102226</v>
+      </c>
+      <c r="BR4">
+        <v>0.9974274721031733</v>
+      </c>
+      <c r="BS4">
+        <v>0.999898535844615</v>
+      </c>
+      <c r="BT4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BU4">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0.1098722487155494</v>
+      </c>
+      <c r="AQ5">
+        <v>0.1425480209703328</v>
+      </c>
+      <c r="AR5">
+        <v>0.2093805570872771</v>
+      </c>
+      <c r="AS5">
+        <v>0.2890804104471966</v>
+      </c>
+      <c r="AT5">
+        <v>0.2939983156168779</v>
+      </c>
+      <c r="AU5">
+        <v>0.2972552217333704</v>
+      </c>
+      <c r="AV5">
+        <v>0.3209705054398057</v>
+      </c>
+      <c r="AW5">
+        <v>0.3755472208503767</v>
+      </c>
+      <c r="AX5">
+        <v>0.4796820098019086</v>
+      </c>
+      <c r="AY5">
+        <v>0.5263279977020207</v>
+      </c>
+      <c r="AZ5">
+        <v>0.5371805406631678</v>
+      </c>
+      <c r="BA5">
+        <v>0.5844365064261527</v>
+      </c>
+      <c r="BB5">
+        <v>0.6540549812442116</v>
+      </c>
+      <c r="BC5">
+        <v>0.6563220627493602</v>
+      </c>
+      <c r="BD5">
+        <v>0.7254614557289984</v>
+      </c>
+      <c r="BE5">
+        <v>0.7558116223260328</v>
+      </c>
+      <c r="BF5">
+        <v>0.7683703875431852</v>
+      </c>
+      <c r="BG5">
+        <v>0.7823975234083593</v>
+      </c>
+      <c r="BH5">
+        <v>0.7828259773017242</v>
+      </c>
+      <c r="BI5">
+        <v>0.800023128293457</v>
+      </c>
+      <c r="BJ5">
+        <v>0.8205011435163823</v>
+      </c>
+      <c r="BK5">
+        <v>0.8910930412695102</v>
+      </c>
+      <c r="BL5">
+        <v>0.9066349232152254</v>
+      </c>
+      <c r="BM5">
+        <v>0.9088790433120957</v>
+      </c>
+      <c r="BN5">
+        <v>0.9135154665720177</v>
+      </c>
+      <c r="BO5">
+        <v>0.9383599439191952</v>
+      </c>
+      <c r="BP5">
+        <v>0.9882915824323091</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9892728763930941</v>
+      </c>
+      <c r="BR5">
+        <v>0.9955923442177147</v>
+      </c>
+      <c r="BS5">
+        <v>0.997888559089432</v>
+      </c>
+      <c r="BT5">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BU5">
+        <v>0.9999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0.1316388507921037</v>
+      </c>
+      <c r="AQ6">
+        <v>0.1493064077333358</v>
+      </c>
+      <c r="AR6">
+        <v>0.268922001433231</v>
+      </c>
+      <c r="AS6">
+        <v>0.3295103051638674</v>
+      </c>
+      <c r="AT6">
+        <v>0.3516363070639011</v>
+      </c>
+      <c r="AU6">
+        <v>0.364709465078456</v>
+      </c>
+      <c r="AV6">
+        <v>0.364709465078456</v>
+      </c>
+      <c r="AW6">
+        <v>0.3669827833476351</v>
+      </c>
+      <c r="AX6">
+        <v>0.3839111312063703</v>
+      </c>
+      <c r="AY6">
+        <v>0.3853030498841516</v>
+      </c>
+      <c r="AZ6">
+        <v>0.3853030498841516</v>
+      </c>
+      <c r="BA6">
+        <v>0.4164908492696786</v>
+      </c>
+      <c r="BB6">
+        <v>0.4217706311920388</v>
+      </c>
+      <c r="BC6">
+        <v>0.4270951178095893</v>
+      </c>
+      <c r="BD6">
+        <v>0.4323037201271114</v>
+      </c>
+      <c r="BE6">
+        <v>0.4834527979537465</v>
+      </c>
+      <c r="BF6">
+        <v>0.6377284204600062</v>
+      </c>
+      <c r="BG6">
+        <v>0.6514883266669548</v>
+      </c>
+      <c r="BH6">
+        <v>0.6928907660436263</v>
+      </c>
+      <c r="BI6">
+        <v>0.698057308328407</v>
+      </c>
+      <c r="BJ6">
+        <v>0.698057308328407</v>
+      </c>
+      <c r="BK6">
+        <v>0.7816840667163044</v>
+      </c>
+      <c r="BL6">
+        <v>0.9230535411702302</v>
+      </c>
+      <c r="BM6">
+        <v>0.9427160571723595</v>
+      </c>
+      <c r="BN6">
+        <v>0.9676543649699557</v>
+      </c>
+      <c r="BO6">
+        <v>0.9748350487049536</v>
+      </c>
+      <c r="BP6">
+        <v>0.9748350487049536</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9748350487049536</v>
+      </c>
+      <c r="BR6">
+        <v>0.9748350487049536</v>
+      </c>
+      <c r="BS6">
+        <v>0.9779733773357486</v>
+      </c>
+      <c r="BT6">
+        <v>0.9802986787788842</v>
+      </c>
+      <c r="BU6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.00561569030654835</v>
-      </c>
-      <c r="F4">
-        <v>0.006014318947893038</v>
-      </c>
-      <c r="G4">
-        <v>0.0598185564109818</v>
-      </c>
-      <c r="H4">
-        <v>0.1395945377026649</v>
-      </c>
-      <c r="I4">
-        <v>0.1431037677112431</v>
-      </c>
-      <c r="J4">
-        <v>0.2080907209861304</v>
-      </c>
-      <c r="K4">
-        <v>0.2280257756905787</v>
-      </c>
-      <c r="L4">
-        <v>0.2281157748740212</v>
-      </c>
-      <c r="M4">
-        <v>0.3658793598187245</v>
-      </c>
-      <c r="N4">
-        <v>0.3997360510417667</v>
-      </c>
-      <c r="O4">
-        <v>0.5092664083317114</v>
-      </c>
-      <c r="P4">
-        <v>0.6656617148473838</v>
-      </c>
-      <c r="Q4">
-        <v>0.6664992625213441</v>
-      </c>
-      <c r="R4">
-        <v>0.6968404633533495</v>
-      </c>
-      <c r="S4">
-        <v>0.729048082261084</v>
-      </c>
-      <c r="T4">
-        <v>0.8061531124415773</v>
-      </c>
-      <c r="U4">
-        <v>0.8400841595754092</v>
-      </c>
-      <c r="V4">
-        <v>0.8478182867873933</v>
-      </c>
-      <c r="W4">
-        <v>0.8723102902264068</v>
-      </c>
-      <c r="X4">
-        <v>0.8724166106883213</v>
-      </c>
-      <c r="Y4">
-        <v>0.8728110478142983</v>
-      </c>
-      <c r="Z4">
-        <v>0.9009887413283743</v>
-      </c>
-      <c r="AA4">
-        <v>0.9313730575905618</v>
-      </c>
-      <c r="AB4">
-        <v>0.9375616156772612</v>
-      </c>
-      <c r="AC4">
-        <v>0.9381842830324586</v>
-      </c>
-      <c r="AD4">
-        <v>0.9381842830324586</v>
-      </c>
-      <c r="AE4">
-        <v>0.938392832373005</v>
-      </c>
-      <c r="AF4">
-        <v>0.9386328688780301</v>
-      </c>
-      <c r="AG4">
-        <v>0.9406088257588596</v>
-      </c>
-      <c r="AH4">
-        <v>0.9644013694020885</v>
-      </c>
-      <c r="AI4">
-        <v>0.994667572273465</v>
-      </c>
-      <c r="AJ4">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="AK4">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.002954420750163581</v>
-      </c>
-      <c r="G5">
-        <v>0.08605388929862523</v>
-      </c>
-      <c r="H5">
-        <v>0.1338156539175958</v>
-      </c>
-      <c r="I5">
-        <v>0.1636494254102537</v>
-      </c>
-      <c r="J5">
-        <v>0.2281649634390312</v>
-      </c>
-      <c r="K5">
-        <v>0.2289540028306353</v>
-      </c>
-      <c r="L5">
-        <v>0.2378629943628879</v>
-      </c>
-      <c r="M5">
-        <v>0.3383269541826255</v>
-      </c>
-      <c r="N5">
-        <v>0.3846991694479256</v>
-      </c>
-      <c r="O5">
-        <v>0.45634315675685</v>
-      </c>
-      <c r="P5">
-        <v>0.6458418546516387</v>
-      </c>
-      <c r="Q5">
-        <v>0.6574255320462085</v>
-      </c>
-      <c r="R5">
-        <v>0.6936904517392237</v>
-      </c>
-      <c r="S5">
-        <v>0.750480013838884</v>
-      </c>
-      <c r="T5">
-        <v>0.8123054518663438</v>
-      </c>
-      <c r="U5">
-        <v>0.8463524177579574</v>
-      </c>
-      <c r="V5">
-        <v>0.8481375075353809</v>
-      </c>
-      <c r="W5">
-        <v>0.8740459204905462</v>
-      </c>
-      <c r="X5">
-        <v>0.8777844828005841</v>
-      </c>
-      <c r="Y5">
-        <v>0.8781715305667573</v>
-      </c>
-      <c r="Z5">
-        <v>0.903092059887702</v>
-      </c>
-      <c r="AA5">
-        <v>0.9401467516301025</v>
-      </c>
-      <c r="AB5">
-        <v>0.947250896296709</v>
-      </c>
-      <c r="AC5">
-        <v>0.9472949380140084</v>
-      </c>
-      <c r="AD5">
-        <v>0.9479320924015451</v>
-      </c>
-      <c r="AE5">
-        <v>0.9479639726882165</v>
-      </c>
-      <c r="AF5">
-        <v>0.948072621139298</v>
-      </c>
-      <c r="AG5">
-        <v>0.9483949888921391</v>
-      </c>
-      <c r="AH5">
-        <v>0.9630695801167241</v>
-      </c>
-      <c r="AI5">
-        <v>0.992392334235231</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9999099196616907</v>
-      </c>
-      <c r="AK5">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.01887371032154129</v>
-      </c>
-      <c r="E6">
-        <v>0.04644041065552375</v>
-      </c>
-      <c r="F6">
-        <v>0.05405730478392328</v>
-      </c>
-      <c r="G6">
-        <v>0.1867711817399908</v>
-      </c>
-      <c r="H6">
-        <v>0.1966192344141428</v>
-      </c>
-      <c r="I6">
-        <v>0.2833995647676655</v>
-      </c>
-      <c r="J6">
-        <v>0.2920988699819642</v>
-      </c>
-      <c r="K6">
-        <v>0.2964494796015285</v>
-      </c>
-      <c r="L6">
-        <v>0.4477703213669953</v>
-      </c>
-      <c r="M6">
-        <v>0.4554143255348868</v>
-      </c>
-      <c r="N6">
-        <v>0.6017934762293959</v>
-      </c>
-      <c r="O6">
-        <v>0.7065208110877294</v>
-      </c>
-      <c r="P6">
-        <v>0.7175117591766886</v>
-      </c>
-      <c r="Q6">
-        <v>0.7981226034779152</v>
-      </c>
-      <c r="R6">
-        <v>0.8260228903410139</v>
-      </c>
-      <c r="S6">
-        <v>0.8465152001358999</v>
-      </c>
-      <c r="T6">
-        <v>0.8523972756382593</v>
-      </c>
-      <c r="U6">
-        <v>0.8602523643019181</v>
-      </c>
-      <c r="V6">
-        <v>0.8718428078290157</v>
-      </c>
-      <c r="W6">
-        <v>0.8736778455212938</v>
-      </c>
-      <c r="X6">
-        <v>0.8757832303947337</v>
-      </c>
-      <c r="Y6">
-        <v>0.9127673666563919</v>
-      </c>
-      <c r="Z6">
-        <v>0.9366310698772025</v>
-      </c>
-      <c r="AA6">
-        <v>0.9388973630336872</v>
-      </c>
-      <c r="AB6">
-        <v>0.9389111986124662</v>
-      </c>
-      <c r="AC6">
-        <v>0.9393681807182166</v>
-      </c>
-      <c r="AD6">
-        <v>0.9406425640499588</v>
-      </c>
-      <c r="AE6">
-        <v>0.940644085239381</v>
-      </c>
-      <c r="AF6">
-        <v>0.9463692600615735</v>
-      </c>
-      <c r="AG6">
-        <v>0.9781568801298767</v>
-      </c>
-      <c r="AH6">
-        <v>0.9987705325279247</v>
-      </c>
-      <c r="AI6">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AJ6">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AK6">
-        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1955,222 +3356,213 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>0.05470714870096575</v>
+        <v>0.09331549844201199</v>
       </c>
       <c r="F2">
-        <v>0.5128884492105896</v>
+        <v>0.5738596657886004</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L2">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>0.02433994289627853</v>
+        <v>0.1087844900677679</v>
       </c>
       <c r="F3">
-        <v>0.5206617214060113</v>
+        <v>0.5010185723061611</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L3">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>0.0598185564109818</v>
+        <v>0.1305720180821399</v>
       </c>
       <c r="F4">
-        <v>0.5092664083317114</v>
+        <v>0.5030979794708889</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>0.08605388929862523</v>
+        <v>0.1098722487155494</v>
       </c>
       <c r="F5">
-        <v>0.6458418546516387</v>
+        <v>0.5263279977020207</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -2179,78 +3571,72 @@
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L5">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>0.01887371032154129</v>
+        <v>0.1316388507921037</v>
       </c>
       <c r="F6">
-        <v>0.6017934762293959</v>
+        <v>0.6377284204600062</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L6">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2268,302 +3654,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.05470714870096575</v>
+        <v>0.09331549844201199</v>
       </c>
       <c r="F2">
-        <v>0.7944437953175192</v>
+        <v>0.7360011121454081</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L2">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>0.02433994289627853</v>
+        <v>0.1087844900677679</v>
       </c>
       <c r="F3">
-        <v>0.7763166581616912</v>
+        <v>0.8901921295512679</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L3">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>0.0598185564109818</v>
+        <v>0.1305720180821399</v>
       </c>
       <c r="F4">
-        <v>0.729048082261084</v>
+        <v>0.7505445811571725</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>0.08605388929862523</v>
+        <v>0.1098722487155494</v>
       </c>
       <c r="F5">
-        <v>0.750480013838884</v>
+        <v>0.7254614557289984</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L5">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E6">
-        <v>0.01887371032154129</v>
+        <v>0.1316388507921037</v>
       </c>
       <c r="F6">
-        <v>0.7065208110877294</v>
+        <v>0.7816840667163044</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L6">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2581,302 +3952,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0.05470714870096575</v>
+        <v>0.09331549844201199</v>
       </c>
       <c r="F2">
-        <v>0.8397242090749972</v>
+        <v>0.8220458451208355</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L2">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D3">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>0.1087844900677679</v>
+      </c>
+      <c r="F3">
+        <v>0.8901921295512679</v>
+      </c>
+      <c r="G3">
         <v>21</v>
-      </c>
-      <c r="E3">
-        <v>0.02433994289627853</v>
-      </c>
-      <c r="F3">
-        <v>0.8136463653960674</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L3">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>0.0598185564109818</v>
+        <v>0.1305720180821399</v>
       </c>
       <c r="F4">
-        <v>0.8061531124415773</v>
+        <v>0.9055811050855999</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>0.1098722487155494</v>
+      </c>
+      <c r="F5">
+        <v>0.800023128293457</v>
+      </c>
+      <c r="G5">
         <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0.08605388929862523</v>
-      </c>
-      <c r="F5">
-        <v>0.8123054518663438</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L5">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E6">
-        <v>0.01887371032154129</v>
+        <v>0.1316388507921037</v>
       </c>
       <c r="F6">
-        <v>0.8260228903410139</v>
+        <v>0.9230535411702302</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L6">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2894,302 +4250,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.05470714870096575</v>
+        <v>0.09331549844201199</v>
       </c>
       <c r="F2">
-        <v>0.9121990431611127</v>
+        <v>0.9082726020823012</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L2">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>0.02433994289627853</v>
+        <v>0.1087844900677679</v>
       </c>
       <c r="F3">
-        <v>0.9011217264249781</v>
+        <v>0.9085886488660679</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L3">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>0.0598185564109818</v>
+        <v>0.1305720180821399</v>
       </c>
       <c r="F4">
-        <v>0.9009887413283743</v>
+        <v>0.9055811050855999</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E5">
-        <v>0.08605388929862523</v>
+        <v>0.1098722487155494</v>
       </c>
       <c r="F5">
-        <v>0.903092059887702</v>
+        <v>0.9066349232152254</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L5">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E6">
-        <v>0.01887371032154129</v>
+        <v>0.1316388507921037</v>
       </c>
       <c r="F6">
-        <v>0.9127673666563919</v>
+        <v>0.9230535411702302</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L6">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
